--- a/results/model_evaluation.xlsx
+++ b/results/model_evaluation.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,8 +31,11 @@
     <font>
       <color rgb="00F1F1F1"/>
     </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="16">
     <fill>
       <patternFill/>
     </fill>
@@ -42,6 +45,71 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00313695"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005C90C2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5FBD2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A50026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00426CB0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCF1F7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2AC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D22B27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FEECA2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F5ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FDAD60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004A7AB7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1FAD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00333B97"/>
       </patternFill>
     </fill>
   </fills>
@@ -63,12 +131,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,16 +557,92 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.9234312032239493</v>
+        <v>0.9252336448598131</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.9028459273797841</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0.9643605870020965</v>
+        <v>0.9173469387755102</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.9503171247357294</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.9325899645210339</v>
+        <v>0.9335410176531672</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Logistic Regression</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>0.9327586206896552</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.938090241343127</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>0.9390756302521008</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0.9385826771653545</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0.9489262913522926</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>0.9459459459459459</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.9619450317124736</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.9538784067085954</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>0.9758759333716255</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>0.9701952723535457</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>0.9864158829676071</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>0.9782383419689119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Tensorflow Neural Networks</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>0.9296424452133795</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>0.9653243847874721</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0.9046121593291404</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>0.9339826839826839</v>
       </c>
     </row>
   </sheetData>

--- a/results/model_evaluation.xlsx
+++ b/results/model_evaluation.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,11 +31,8 @@
     <font>
       <color rgb="00F1F1F1"/>
     </font>
-    <font>
-      <color rgb="00000000"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -49,12 +46,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005C90C2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5FBD2"/>
+        <fgColor rgb="006EA6CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,52 +56,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00426CB0"/>
+        <fgColor rgb="00CC2627"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCF1F7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2AC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D22B27"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FEECA2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F5ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FDAD60"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004A7AB7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F1FAD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00333B97"/>
+        <fgColor rgb="004878B6"/>
       </patternFill>
     </fill>
   </fills>
@@ -131,25 +83,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -515,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +500,16 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.9252336448598131</v>
+        <v>0.9261591299370349</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.9173469387755102</v>
+        <v>0.9109792284866469</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.9503171247357294</v>
+        <v>0.959375</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.9335410176531672</v>
+        <v>0.93455098934551</v>
       </c>
     </row>
     <row r="3">
@@ -576,73 +519,35 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.9327586206896552</v>
+        <v>0.9293981481481481</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>0.938090241343127</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>0.9390756302521008</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>0.9385826771653545</v>
+        <v>0.9360587002096437</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0.9360587002096437</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.9360587002096437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="n">
-        <v>0.9489262913522926</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>0.9459459459459459</v>
-      </c>
-      <c r="D4" s="10" t="n">
-        <v>0.9619450317124736</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>0.9538784067085954</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="n">
-        <v>0.9758759333716255</v>
-      </c>
-      <c r="C5" s="12" t="n">
-        <v>0.9701952723535457</v>
-      </c>
-      <c r="D5" s="12" t="n">
-        <v>0.9864158829676071</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0.9782383419689119</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
           <t>Tensorflow Neural Networks</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
-        <v>0.9296424452133795</v>
-      </c>
-      <c r="C6" s="14" t="n">
-        <v>0.9653243847874721</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0.9046121593291404</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <v>0.9339826839826839</v>
+      <c r="B4" s="5" t="n">
+        <v>0.9431171786120591</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.9360406091370559</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9614181438998958</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9485596707818931</v>
       </c>
     </row>
   </sheetData>
